--- a/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-2/06_Log.M2.Scaled.Coef.xlsx
+++ b/results/Analysis_Sensitivity/Sens.CV5.Associations/Fold-2/06_Log.M2.Scaled.Coef.xlsx
@@ -422,52 +422,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.67 (0.50, 0.90)</t>
+          <t>0.91 (0.72, 1.18)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.73 (0.54, 1.00)</t>
+          <t>0.93 (0.84, 1.03)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.173</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.80 (0.57, 1.11)</t>
+          <t>0.97 (0.93, 1.02)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.177</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.63 (0.46, 0.87)</t>
+          <t>0.92 (0.83, 1.02)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.72 (0.53, 0.97)</t>
+          <t>0.92 (0.81, 1.06)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.229</t>
         </is>
       </c>
     </row>
@@ -479,104 +479,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.65 (0.48, 0.86)</t>
+          <t>0.73 (0.53, 0.95)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.029</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70 (0.54, 0.89)</t>
+          <t>0.84 (0.77, 0.92)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.72 (0.57, 0.90)</t>
+          <t>0.94 (0.91, 0.97)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.64 (0.49, 0.82)</t>
+          <t>0.85 (0.78, 0.93)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.73 (0.57, 0.93)</t>
+          <t>0.79 (0.70, 0.89)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HF</t>
+          <t>Heart failure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.27 (0.09, 0.63)</t>
+          <t>0.22 (0.07, 0.55)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36 (0.19, 0.64)</t>
+          <t>0.73 (0.59, 0.88)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.60 (0.37, 0.93)</t>
+          <t>0.92 (0.86, 0.98)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.35 (0.18, 0.63)</t>
+          <t>0.76 (0.63, 0.90)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.32 (0.15, 0.60)</t>
+          <t>0.63 (0.46, 0.82)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -588,57 +588,57 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>Myocardial Infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.41 (0.16, 0.84)</t>
+          <t>1.00 (0.63, 1.39)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.63 (0.36, 1.03)</t>
+          <t>0.84 (0.70, 1.00)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.084</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.74 (0.47, 1.15)</t>
+          <t>0.94 (0.87, 1.00)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.194</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.52 (0.28, 0.90)</t>
+          <t>0.90 (0.76, 1.05)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.55 (0.29, 0.94)</t>
+          <t>0.82 (0.64, 1.02)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.096</t>
         </is>
       </c>
     </row>
@@ -650,52 +650,52 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.73 (0.52, 0.98)</t>
+          <t>0.63 (0.43, 0.88)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.74 (0.56, 0.97)</t>
+          <t>0.84 (0.75, 0.93)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.73 (0.56, 0.95)</t>
+          <t>0.93 (0.90, 0.97)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.75 (0.56, 0.99)</t>
+          <t>0.84 (0.76, 0.92)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.77 (0.58, 1.00)</t>
+          <t>0.84 (0.73, 0.95)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.007</t>
         </is>
       </c>
     </row>
